--- a/input/Test data_ Subjects.xlsx
+++ b/input/Test data_ Subjects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neomi\Documents\Github\b2023-res-abm\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791C80DF-3E30-4CD1-9A4E-A9338EE20E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1E066A-3857-4413-9399-B0400191D77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3375" windowWidth="15375" windowHeight="7995" tabRatio="994" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7995" tabRatio="994" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grade level 11" sheetId="1" r:id="rId1"/>
@@ -865,8 +865,8 @@
   </sheetPr>
   <dimension ref="A1:AU25"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:F8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2585,7 +2585,7 @@
         <v>32</v>
       </c>
       <c r="C21" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>30</v>
@@ -2664,7 +2664,7 @@
         <v>32</v>
       </c>
       <c r="C22" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>30</v>
@@ -2974,6 +2974,261 @@
     </row>
   </sheetData>
   <mergeCells count="279">
+    <mergeCell ref="AJ25:AM25"/>
+    <mergeCell ref="AJ18:AM18"/>
+    <mergeCell ref="AJ19:AM19"/>
+    <mergeCell ref="AJ20:AM20"/>
+    <mergeCell ref="AJ21:AM21"/>
+    <mergeCell ref="AJ22:AM22"/>
+    <mergeCell ref="AJ16:AM16"/>
+    <mergeCell ref="AJ9:AM9"/>
+    <mergeCell ref="AJ10:AM10"/>
+    <mergeCell ref="AJ11:AM11"/>
+    <mergeCell ref="AJ12:AM12"/>
+    <mergeCell ref="AJ13:AM13"/>
+    <mergeCell ref="AN23:AQ23"/>
+    <mergeCell ref="AB23:AE23"/>
+    <mergeCell ref="AB24:AE24"/>
+    <mergeCell ref="AB19:AE19"/>
+    <mergeCell ref="AB20:AE20"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="AJ17:AM17"/>
+    <mergeCell ref="AJ23:AM23"/>
+    <mergeCell ref="AJ24:AM24"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AB7:AE7"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AB14:AE14"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="AJ8:AM8"/>
+    <mergeCell ref="AJ14:AM14"/>
+    <mergeCell ref="AJ15:AM15"/>
+    <mergeCell ref="AN17:AQ17"/>
+    <mergeCell ref="AN14:AQ14"/>
+    <mergeCell ref="AN15:AQ15"/>
+    <mergeCell ref="AN18:AQ18"/>
+    <mergeCell ref="AN19:AQ19"/>
+    <mergeCell ref="AR3:AU3"/>
+    <mergeCell ref="AR4:AU4"/>
+    <mergeCell ref="AR5:AU5"/>
+    <mergeCell ref="AR6:AU6"/>
+    <mergeCell ref="AR7:AU7"/>
+    <mergeCell ref="AR8:AU8"/>
+    <mergeCell ref="AR12:AU12"/>
+    <mergeCell ref="AR13:AU13"/>
+    <mergeCell ref="AR14:AU14"/>
+    <mergeCell ref="AR15:AU15"/>
+    <mergeCell ref="AR10:AU10"/>
+    <mergeCell ref="AR11:AU11"/>
+    <mergeCell ref="AN9:AQ9"/>
+    <mergeCell ref="AN10:AQ10"/>
+    <mergeCell ref="AN11:AQ11"/>
+    <mergeCell ref="AN12:AQ12"/>
+    <mergeCell ref="AR23:AU23"/>
+    <mergeCell ref="AR24:AU24"/>
+    <mergeCell ref="AR25:AU25"/>
+    <mergeCell ref="AR18:AU18"/>
+    <mergeCell ref="AR19:AU19"/>
+    <mergeCell ref="AR20:AU20"/>
+    <mergeCell ref="AR21:AU21"/>
+    <mergeCell ref="AR22:AU22"/>
+    <mergeCell ref="AN16:AQ16"/>
+    <mergeCell ref="AR16:AU16"/>
+    <mergeCell ref="AR17:AU17"/>
+    <mergeCell ref="AN24:AQ24"/>
+    <mergeCell ref="AN25:AQ25"/>
+    <mergeCell ref="AN20:AQ20"/>
+    <mergeCell ref="AN21:AQ21"/>
+    <mergeCell ref="AN22:AQ22"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="X15:AA15"/>
+    <mergeCell ref="X18:AA18"/>
+    <mergeCell ref="AB16:AE16"/>
+    <mergeCell ref="AB17:AE17"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="X16:AA16"/>
+    <mergeCell ref="X17:AA17"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="X23:AA23"/>
+    <mergeCell ref="X24:AA24"/>
+    <mergeCell ref="X25:AA25"/>
+    <mergeCell ref="X19:AA19"/>
+    <mergeCell ref="X20:AA20"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="X21:AA21"/>
+    <mergeCell ref="X22:AA22"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="AB25:AE25"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="AN5:AQ5"/>
+    <mergeCell ref="AN6:AQ6"/>
+    <mergeCell ref="AJ3:AM3"/>
+    <mergeCell ref="AJ4:AM4"/>
+    <mergeCell ref="AJ5:AM5"/>
+    <mergeCell ref="AJ6:AM6"/>
+    <mergeCell ref="AJ7:AM7"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AN4:AQ4"/>
+    <mergeCell ref="AN7:AQ7"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AN13:AQ13"/>
+    <mergeCell ref="AN8:AQ8"/>
+    <mergeCell ref="AR9:AU9"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="M5:O5"/>
     <mergeCell ref="M3:O3"/>
@@ -2998,261 +3253,6 @@
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="AN13:AQ13"/>
-    <mergeCell ref="AN8:AQ8"/>
-    <mergeCell ref="AR9:AU9"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="AN5:AQ5"/>
-    <mergeCell ref="AN6:AQ6"/>
-    <mergeCell ref="AJ3:AM3"/>
-    <mergeCell ref="AJ4:AM4"/>
-    <mergeCell ref="AJ5:AM5"/>
-    <mergeCell ref="AJ6:AM6"/>
-    <mergeCell ref="AJ7:AM7"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="AN4:AQ4"/>
-    <mergeCell ref="AN7:AQ7"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="T25:W25"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="T21:W21"/>
-    <mergeCell ref="T22:W22"/>
-    <mergeCell ref="X23:AA23"/>
-    <mergeCell ref="X24:AA24"/>
-    <mergeCell ref="X25:AA25"/>
-    <mergeCell ref="X19:AA19"/>
-    <mergeCell ref="X20:AA20"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="X21:AA21"/>
-    <mergeCell ref="X22:AA22"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="X15:AA15"/>
-    <mergeCell ref="X18:AA18"/>
-    <mergeCell ref="AB16:AE16"/>
-    <mergeCell ref="AB17:AE17"/>
-    <mergeCell ref="AB15:AE15"/>
-    <mergeCell ref="AB18:AE18"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="X16:AA16"/>
-    <mergeCell ref="X17:AA17"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="AR23:AU23"/>
-    <mergeCell ref="AR24:AU24"/>
-    <mergeCell ref="AR25:AU25"/>
-    <mergeCell ref="AR18:AU18"/>
-    <mergeCell ref="AR19:AU19"/>
-    <mergeCell ref="AR20:AU20"/>
-    <mergeCell ref="AR21:AU21"/>
-    <mergeCell ref="AR22:AU22"/>
-    <mergeCell ref="AN16:AQ16"/>
-    <mergeCell ref="AR16:AU16"/>
-    <mergeCell ref="AR17:AU17"/>
-    <mergeCell ref="AJ8:AM8"/>
-    <mergeCell ref="AJ14:AM14"/>
-    <mergeCell ref="AJ15:AM15"/>
-    <mergeCell ref="AN17:AQ17"/>
-    <mergeCell ref="AN14:AQ14"/>
-    <mergeCell ref="AN15:AQ15"/>
-    <mergeCell ref="AN18:AQ18"/>
-    <mergeCell ref="AN19:AQ19"/>
-    <mergeCell ref="AR3:AU3"/>
-    <mergeCell ref="AR4:AU4"/>
-    <mergeCell ref="AR5:AU5"/>
-    <mergeCell ref="AR6:AU6"/>
-    <mergeCell ref="AR7:AU7"/>
-    <mergeCell ref="AR8:AU8"/>
-    <mergeCell ref="AR12:AU12"/>
-    <mergeCell ref="AR13:AU13"/>
-    <mergeCell ref="AR14:AU14"/>
-    <mergeCell ref="AR15:AU15"/>
-    <mergeCell ref="AR10:AU10"/>
-    <mergeCell ref="AR11:AU11"/>
-    <mergeCell ref="AN9:AQ9"/>
-    <mergeCell ref="AN10:AQ10"/>
-    <mergeCell ref="AN11:AQ11"/>
-    <mergeCell ref="AN12:AQ12"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="AB7:AE7"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AB14:AE14"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="AN24:AQ24"/>
-    <mergeCell ref="AN25:AQ25"/>
-    <mergeCell ref="AN20:AQ20"/>
-    <mergeCell ref="AN21:AQ21"/>
-    <mergeCell ref="AN22:AQ22"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="AJ16:AM16"/>
-    <mergeCell ref="AJ9:AM9"/>
-    <mergeCell ref="AJ10:AM10"/>
-    <mergeCell ref="AJ11:AM11"/>
-    <mergeCell ref="AJ12:AM12"/>
-    <mergeCell ref="AJ13:AM13"/>
-    <mergeCell ref="AN23:AQ23"/>
-    <mergeCell ref="AB23:AE23"/>
-    <mergeCell ref="AB24:AE24"/>
-    <mergeCell ref="AB19:AE19"/>
-    <mergeCell ref="AB20:AE20"/>
-    <mergeCell ref="AB21:AE21"/>
-    <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="AB25:AE25"/>
-    <mergeCell ref="AJ17:AM17"/>
-    <mergeCell ref="AJ23:AM23"/>
-    <mergeCell ref="AJ24:AM24"/>
-    <mergeCell ref="AJ25:AM25"/>
-    <mergeCell ref="AJ18:AM18"/>
-    <mergeCell ref="AJ19:AM19"/>
-    <mergeCell ref="AJ20:AM20"/>
-    <mergeCell ref="AJ21:AM21"/>
-    <mergeCell ref="AJ22:AM22"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:AU25">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -3490,7 +3490,7 @@
   </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
